--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2391.663241160576</v>
+        <v>854.627052888151</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.82761200999286</v>
+        <v>38.6270528881508</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.60006183367955</v>
+        <v>15.94070395156352</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.685690984262621</v>
+        <v>15.94070395156352</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1900.62</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.13</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,12 +628,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.685690984262621</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.31116002552197</v>
+        <v>17.41539744121283</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.01720891576281</v>
+        <v>19.01720891576282</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.175878838003</v>
+        <v>9.280116253693862</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.94576542652248</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>24.95791286732633</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1056,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1070,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1084,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1098,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1112,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1126,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1140,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1154,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1168,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,85 +1182,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>110.9400000000002</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>104.1450000000002</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>108.7900000000002</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.8600000000002</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>112.4700000000002</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>285.6799999999996</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>282.4149999999997</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>267.9049999999997</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>277.3049999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>284.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>65.61000000000051</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>67.42000000000051</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.04500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>66.6350000000005</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>204.6250000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>199.3150000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>199.9050000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>201.0650000000006</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>207.0800000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>285.6799999999996</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>282.4149999999997</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>267.9049999999997</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>277.3049999999996</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>284.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>110.9400000000002</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>104.1450000000002</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>108.7900000000002</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>115.8600000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>112.4700000000002</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>185.6799999999996</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>182.4149999999997</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9049999999997</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>177.3049999999996</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>184.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.94000000000023</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4.145000000000219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.790000000000219</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>15.86000000000023</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>12.47000000000021</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2165,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2176,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2187,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2198,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,7 +2209,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2235,7 +2220,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2246,7 +2231,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2257,7 +2242,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2268,7 +2253,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2279,122 +2264,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
